--- a/SuRGE_Sharepoint/data/PR/ch4_1000_/dataSheets/surgeData1000.xlsx
+++ b/SuRGE_Sharepoint/data/PR/ch4_1000_/dataSheets/surgeData1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/PR/ch4_1000/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/PR/ch4_1000_/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="725" documentId="8_{776D83BB-E38F-49FD-8494-AF8B7AC5CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37CCD125-F885-4BDB-B6F1-0DD22380DD15}"/>
+  <xr:revisionPtr revIDLastSave="739" documentId="8_{776D83BB-E38F-49FD-8494-AF8B7AC5CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0237E73A-15E2-460A-BC80-9B868BEC0E88}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1526,9 +1526,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1566,7 +1566,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1672,7 +1672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1814,7 +1814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1826,89 +1826,89 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW17" sqref="AW17:BF17"/>
+      <selection pane="topRight" activeCell="BA18" sqref="BA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.81640625" customWidth="1"/>
-    <col min="47" max="47" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.26953125" customWidth="1"/>
-    <col min="49" max="49" width="23.81640625" customWidth="1"/>
-    <col min="50" max="50" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.85546875" customWidth="1"/>
+    <col min="47" max="47" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.28515625" customWidth="1"/>
+    <col min="49" max="49" width="23.85546875" customWidth="1"/>
+    <col min="50" max="50" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="9" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.81640625" customWidth="1"/>
-    <col min="69" max="69" width="30.1796875" customWidth="1"/>
-    <col min="70" max="70" width="20.453125" customWidth="1"/>
-    <col min="71" max="71" width="22.81640625" customWidth="1"/>
-    <col min="72" max="72" width="11.453125" customWidth="1"/>
+    <col min="63" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.85546875" customWidth="1"/>
+    <col min="69" max="69" width="30.140625" customWidth="1"/>
+    <col min="70" max="70" width="20.42578125" customWidth="1"/>
+    <col min="71" max="71" width="22.85546875" customWidth="1"/>
+    <col min="72" max="72" width="11.42578125" customWidth="1"/>
     <col min="73" max="73" width="11" customWidth="1"/>
-    <col min="74" max="74" width="11.54296875" customWidth="1"/>
-    <col min="75" max="76" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5703125" customWidth="1"/>
+    <col min="75" max="76" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="BY1" s="39"/>
       <c r="BZ1" s="39"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>84</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>0.74097222222222225</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>84</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>7.85</v>
       </c>
       <c r="BA4">
-        <v>0.27800000000000002</v>
+        <v>278</v>
       </c>
       <c r="BB4">
         <v>11.03</v>
@@ -2496,7 +2496,7 @@
         <v>0.65486111111111112</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>84</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>6.43</v>
       </c>
       <c r="BA5">
-        <v>0.27800000000000002</v>
+        <v>278</v>
       </c>
       <c r="BB5">
         <v>11.05</v>
@@ -2624,7 +2624,7 @@
         <v>0.46527777777777773</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>6.62</v>
       </c>
       <c r="BA6">
-        <v>0.27900000000000003</v>
+        <v>279</v>
       </c>
       <c r="BB6">
         <v>10.97</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>84</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>1.18</v>
       </c>
       <c r="BA7">
-        <v>0.39700000000000002</v>
+        <v>397</v>
       </c>
       <c r="BB7">
         <v>11.22</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>3.6</v>
       </c>
       <c r="BA8">
-        <v>0.27900000000000003</v>
+        <v>279</v>
       </c>
       <c r="BB8">
         <v>17.559999999999999</v>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>84</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0.66</v>
       </c>
       <c r="BA9">
-        <v>0.34799999999999998</v>
+        <v>348</v>
       </c>
       <c r="BB9">
         <v>11.15</v>
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0.32</v>
       </c>
       <c r="BA10">
-        <v>0.28799999999999998</v>
+        <v>288</v>
       </c>
       <c r="BB10">
         <v>11.56</v>
@@ -3208,7 +3208,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>84</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0.45</v>
       </c>
       <c r="BA11">
-        <v>0.42799999999999999</v>
+        <v>428</v>
       </c>
       <c r="BB11">
         <v>11.28</v>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>84</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>2.29</v>
       </c>
       <c r="BA12">
-        <v>0.28299999999999997</v>
+        <v>283</v>
       </c>
       <c r="BB12">
         <v>11.08</v>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>84</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="BA13">
-        <v>0.28299999999999997</v>
+        <v>283</v>
       </c>
       <c r="BB13">
         <v>11.13</v>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>84</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0.76</v>
       </c>
       <c r="BA14">
-        <v>0.32700000000000001</v>
+        <v>327</v>
       </c>
       <c r="BB14">
         <v>11.12</v>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>84</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>1.39</v>
       </c>
       <c r="BA15">
-        <v>0.44500000000000001</v>
+        <v>445</v>
       </c>
       <c r="BB15">
         <v>11.25</v>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>84</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>0.61</v>
       </c>
       <c r="BA16">
-        <v>0.443</v>
+        <v>443</v>
       </c>
       <c r="BB16">
         <v>20.82</v>
@@ -3903,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>84</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0.68</v>
       </c>
       <c r="BA17">
-        <v>0.35199999999999998</v>
+        <v>352</v>
       </c>
       <c r="BB17">
         <v>21.14</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="G18" s="26"/>
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
@@ -4047,14 +4047,14 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4837,17 +4837,17 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="25"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
@@ -4863,7 +4863,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>84</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>84</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>84</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>84</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
@@ -5086,14 +5086,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>233</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>234</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>235</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>236</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>237</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>238</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>239</v>
       </c>
@@ -5243,13 +5243,29 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d0c06073aad642fb447e451b4bd3149">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f347bf1c409ca453852eb5a13773c360" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint.v3"/>
@@ -5295,6 +5311,8 @@
                 <xsd:element ref="ns6:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns6:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns6:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5350,6 +5368,16 @@
           <xsd:enumeration value="Urdu (Islamic Republic of Pakistan)"/>
           <xsd:enumeration value="Vietnamese (Vietnam)"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="45" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="46" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5718,20 +5746,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
@@ -5747,7 +5761,11 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D3E6EF5-1D1E-49C2-B4C0-9E22F0256324}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5759,9 +5777,24 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872FE9B5-A6CD-4CFD-9719-907EB6EBBAB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>